--- a/crm_template.xlsx
+++ b/crm_template.xlsx
@@ -1,37 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\excel_to_crm\idx.esdsdev\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+  <workbookProtection/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6870"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" iterate="1"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -50,21 +47,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -352,13 +408,2773 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:CE29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Phase Name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Duration</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Group Name</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Group Qty</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Disk</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Cross Connect and Port Termination</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Archival Space</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Fortinet - Virtual External Firewall - 2 Gpbs</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>File Storage 0.3 IOPS per GB</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Object Storage 10 IOPS per GB</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Windows Standard Edition</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>Block Storage 50 IOPS per GB</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>Oracle Standard Edition</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>Security orchestration, automation and response</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>Storage Management Per TB</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>Block Storage 20 IOPS per GB</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>MSSQL Database Managed Services (Up to 100 GB)</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>Block Storage 25 IOPS per GB</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>MSSQL-STD</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>Anti-Virus</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>Load Balancer Management</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>RAM</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>Oracle Enterprise</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>McAfee - Database activity monitoring</t>
+        </is>
+      </c>
+      <c r="Y1" t="inlineStr">
+        <is>
+          <t>Object Storage 1 IOPS per GB</t>
+        </is>
+      </c>
+      <c r="Z1" t="inlineStr">
+        <is>
+          <t>File Storage 3 IOPS per GB</t>
+        </is>
+      </c>
+      <c r="AA1" t="inlineStr">
+        <is>
+          <t>Endpoint Detection &amp; Response Service</t>
+        </is>
+      </c>
+      <c r="AB1" t="inlineStr">
+        <is>
+          <t>Windows Operating System Managed Services</t>
+        </is>
+      </c>
+      <c r="AC1" t="inlineStr">
+        <is>
+          <t>Block Storage 40 IOPS per GB</t>
+        </is>
+      </c>
+      <c r="AD1" t="inlineStr">
+        <is>
+          <t>Linux : SUSE</t>
+        </is>
+      </c>
+      <c r="AE1" t="inlineStr">
+        <is>
+          <t>SECEON - SIEM-Internal Security</t>
+        </is>
+      </c>
+      <c r="AF1" t="inlineStr">
+        <is>
+          <t>Block Storage 5 IOPS per GB</t>
+        </is>
+      </c>
+      <c r="AG1" t="inlineStr">
+        <is>
+          <t>Identity Access Management</t>
+        </is>
+      </c>
+      <c r="AH1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSSQL-Enterprise Core </t>
+        </is>
+      </c>
+      <c r="AI1" t="inlineStr">
+        <is>
+          <t>NON CERT IN- VAPT Audit</t>
+        </is>
+      </c>
+      <c r="AJ1" t="inlineStr">
+        <is>
+          <t>Speed Based Internet Bandwidth</t>
+        </is>
+      </c>
+      <c r="AK1" t="inlineStr">
+        <is>
+          <t>Maria DB Community Edition</t>
+        </is>
+      </c>
+      <c r="AL1" t="inlineStr">
+        <is>
+          <t>Palo alto - Physical UTM- 1 Gpbs</t>
+        </is>
+      </c>
+      <c r="AM1" t="inlineStr">
+        <is>
+          <t>OEM Specific</t>
+        </is>
+      </c>
+      <c r="AN1" t="inlineStr">
+        <is>
+          <t>Block Storage 15 IOPS per GB</t>
+        </is>
+      </c>
+      <c r="AO1" t="inlineStr">
+        <is>
+          <t>Block Storage 1 IOPS per GB</t>
+        </is>
+      </c>
+      <c r="AP1" t="inlineStr">
+        <is>
+          <t>MongoDB Community Edition</t>
+        </is>
+      </c>
+      <c r="AQ1" t="inlineStr">
+        <is>
+          <t>My SQL Enterprise Edition</t>
+        </is>
+      </c>
+      <c r="AR1" t="inlineStr">
+        <is>
+          <t>MS SQL Enterprise Edition - Active VM</t>
+        </is>
+      </c>
+      <c r="AS1" t="inlineStr">
+        <is>
+          <t>CPU</t>
+        </is>
+      </c>
+      <c r="AT1" t="inlineStr">
+        <is>
+          <t>File Storage 5 IOPS per GB</t>
+        </is>
+      </c>
+      <c r="AU1" t="inlineStr">
+        <is>
+          <t>File Storage 1 IOPS per GB</t>
+        </is>
+      </c>
+      <c r="AV1" t="inlineStr">
+        <is>
+          <t>Postgre SQL Enterprise Edition</t>
+        </is>
+      </c>
+      <c r="AW1" t="inlineStr">
+        <is>
+          <t>Other- VWAF - 2Gbps</t>
+        </is>
+      </c>
+      <c r="AX1" t="inlineStr">
+        <is>
+          <t>MSSQL-Enterprise</t>
+        </is>
+      </c>
+      <c r="AY1" t="inlineStr">
+        <is>
+          <t>Alpha SSL Wild Card</t>
+        </is>
+      </c>
+      <c r="AZ1" t="inlineStr">
+        <is>
+          <t>File Storage 8 IOPS per GB</t>
+        </is>
+      </c>
+      <c r="BA1" t="inlineStr">
+        <is>
+          <t>SUSE - OSMng- Managed Services</t>
+        </is>
+      </c>
+      <c r="BB1" t="inlineStr">
+        <is>
+          <t>Oracle Linux</t>
+        </is>
+      </c>
+      <c r="BC1" t="inlineStr">
+        <is>
+          <t>eMagic Monitoring Basic</t>
+        </is>
+      </c>
+      <c r="BD1" t="inlineStr">
+        <is>
+          <t>VTMScan - 60Scan</t>
+        </is>
+      </c>
+      <c r="BE1" t="inlineStr">
+        <is>
+          <t>Object Storage 5 IOPS per GB</t>
+        </is>
+      </c>
+      <c r="BF1" t="inlineStr">
+        <is>
+          <t>Block Storage 10 IOPS per GB</t>
+        </is>
+      </c>
+      <c r="BG1" t="inlineStr">
+        <is>
+          <t>Block Storage 8 IOPS per GB</t>
+        </is>
+      </c>
+      <c r="BH1" t="inlineStr">
+        <is>
+          <t>Block Storage 0.3 IOPS per GB</t>
+        </is>
+      </c>
+      <c r="BI1" t="inlineStr">
+        <is>
+          <t>Postgre SQL Community Edition</t>
+        </is>
+      </c>
+      <c r="BJ1" t="inlineStr">
+        <is>
+          <t>Object Storage 0.3 IOPS per GB</t>
+        </is>
+      </c>
+      <c r="BK1" t="inlineStr">
+        <is>
+          <t>Backup Storage - Per GB 0.3 IOPS</t>
+        </is>
+      </c>
+      <c r="BL1" t="inlineStr">
+        <is>
+          <t>Win</t>
+        </is>
+      </c>
+      <c r="BM1" t="inlineStr">
+        <is>
+          <t>Debian</t>
+        </is>
+      </c>
+      <c r="BN1" t="inlineStr">
+        <is>
+          <t>SUSE</t>
+        </is>
+      </c>
+      <c r="BO1" t="inlineStr">
+        <is>
+          <t>DDOS Mitigation - 1Gbps</t>
+        </is>
+      </c>
+      <c r="BP1" t="inlineStr">
+        <is>
+          <t>Block Storage 100 IOPS per GB</t>
+        </is>
+      </c>
+      <c r="BQ1" t="inlineStr">
+        <is>
+          <t>Backup Management - per Instance</t>
+        </is>
+      </c>
+      <c r="BR1" t="inlineStr">
+        <is>
+          <t>Block Storage 3 IOPS per GB</t>
+        </is>
+      </c>
+      <c r="BS1" t="inlineStr">
+        <is>
+          <t>DLP VM - End Point</t>
+        </is>
+      </c>
+      <c r="BT1" t="inlineStr">
+        <is>
+          <t>My SQL Community Edition</t>
+        </is>
+      </c>
+      <c r="BU1" t="inlineStr">
+        <is>
+          <t>FireWall Management</t>
+        </is>
+      </c>
+      <c r="BV1" t="inlineStr">
+        <is>
+          <t>OEM MFA Fortinet</t>
+        </is>
+      </c>
+      <c r="BW1" t="inlineStr">
+        <is>
+          <t>Block Storage 30 IOPS per GB</t>
+        </is>
+      </c>
+      <c r="BX1" t="inlineStr">
+        <is>
+          <t>Object Storage 3 IOPS per GB</t>
+        </is>
+      </c>
+      <c r="BY1" t="inlineStr">
+        <is>
+          <t>Object Storage 8 IOPS per GB</t>
+        </is>
+      </c>
+      <c r="BZ1" t="inlineStr">
+        <is>
+          <t>Fortinet - Virtual Internal Firewall - 2 Gpbs</t>
+        </is>
+      </c>
+      <c r="CA1" t="inlineStr">
+        <is>
+          <t>MS SQL Enterprise Edition - Passive VM</t>
+        </is>
+      </c>
+      <c r="CB1" t="inlineStr">
+        <is>
+          <t>iRaje- Priviledge Identity Management-OEM</t>
+        </is>
+      </c>
+      <c r="CC1" t="inlineStr">
+        <is>
+          <t>Hardware Security Module - Shared</t>
+        </is>
+      </c>
+      <c r="CD1" t="inlineStr">
+        <is>
+          <t>Web Application Firewall Management</t>
+        </is>
+      </c>
+      <c r="CE1" t="inlineStr">
+        <is>
+          <t>File Storage 10 IOPS per GB</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>h</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>s</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>h</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>s</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>h</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>s</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>h</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>s</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>h</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>s</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>h</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>s</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>h</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>s</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>h</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>s</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>h</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>s</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>h</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>s</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>e</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>r</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>e</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>r</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>r</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>e</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>r</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>r</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>e</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>r</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>h</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>e</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>r</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>h</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>e</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>r</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>h</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>e</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>r</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>s</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>h</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>e</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>r</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>s</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>e</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>r</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>s</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>e</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>r</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>s</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>h</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>e</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>r</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>s</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>h</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>e</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>r</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>s</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>h</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>e</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>r</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>s</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>h</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>e</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>r</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>s</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>e</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>r</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>s</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>e</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>r</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>s</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>e</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>r</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>s</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>e</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>r</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>s</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>